--- a/test_cases/TC-5/PE-54.xlsx
+++ b/test_cases/TC-5/PE-54.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591FDF9-49BD-444E-A1AC-5A2FBDCB3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA48FF3-FF04-4768-A518-1A87DBD1F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -133,17 +133,53 @@
 Inicio de Sesion</t>
   </si>
   <si>
-    <t>TC-5</t>
+    <t>TC-5-1</t>
+  </si>
+  <si>
+    <t>TC-5-2</t>
+  </si>
+  <si>
+    <t>User e-mail = pepe#gmail</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion error e-mail</t>
+  </si>
+  <si>
+    <t>TC-5-3</t>
+  </si>
+  <si>
+    <t>password = 1234</t>
+  </si>
+  <si>
+    <t>password incorrecta = aaaa</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion bloqueo</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion error y reingreso</t>
+  </si>
+  <si>
+    <t>TC-5-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,55 +381,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,16 +453,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>222754</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375154</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142963</xdr:rowOff>
+      <xdr:rowOff>57238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456797</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332972</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>182823</xdr:rowOff>
+      <xdr:rowOff>239973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -453,8 +491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5203976" y="1243630"/>
-          <a:ext cx="6022421" cy="4273193"/>
+          <a:off x="7176004" y="1781263"/>
+          <a:ext cx="5768068" cy="4354685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -775,24 +813,23 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -809,328 +846,522 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="19"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="E21" s="21"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="E32" s="21"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="2:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
-        <v>5</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="19"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E51" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
